--- a/result/atest_060_zernikemomentcalctime_CPU_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_25P_5K.xlsx
@@ -493,28 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.132804885297186</v>
+        <v>2.282312364193742</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07934809538706138</v>
+        <v>-0.03750883096981728</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9864904880523682</v>
+        <v>0.7409286499023438</v>
       </c>
       <c r="G2" t="n">
-        <v>7.000799894332886</v>
+        <v>6.057705402374268</v>
       </c>
       <c r="H2" t="n">
-        <v>14.34582090377808</v>
+        <v>13.03569984436035</v>
       </c>
       <c r="I2" t="n">
-        <v>21.54297089576721</v>
+        <v>20.61857652664185</v>
       </c>
       <c r="J2" t="n">
-        <v>31.76557898521423</v>
+        <v>29.94465708732605</v>
       </c>
       <c r="K2" t="n">
-        <v>15.12833223342895</v>
+        <v>14.07951350212097</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>2.368221377570682</v>
+        <v>2.236578251479703</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4111949415529799</v>
+        <v>0.4351206325781129</v>
       </c>
       <c r="F3" t="n">
-        <v>2.140851259231567</v>
+        <v>2.225742816925049</v>
       </c>
       <c r="G3" t="n">
-        <v>18.46232461929321</v>
+        <v>17.2982542514801</v>
       </c>
       <c r="H3" t="n">
-        <v>35.36834526062012</v>
+        <v>35.94790291786194</v>
       </c>
       <c r="I3" t="n">
-        <v>65.67444777488708</v>
+        <v>57.45261168479919</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0045084953308</v>
+        <v>84.21590089797974</v>
       </c>
       <c r="K3" t="n">
-        <v>45.13009548187256</v>
+        <v>39.4280825138092</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2.262133870964375</v>
+        <v>2.235403926297625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7960070701664574</v>
+        <v>0.7653387907759001</v>
       </c>
       <c r="F4" t="n">
-        <v>4.986172437667847</v>
+        <v>4.505021810531616</v>
       </c>
       <c r="G4" t="n">
-        <v>41.83420300483704</v>
+        <v>40.41183948516846</v>
       </c>
       <c r="H4" t="n">
-        <v>85.79036903381348</v>
+        <v>79.65194511413574</v>
       </c>
       <c r="I4" t="n">
-        <v>138.0000197887421</v>
+        <v>116.6550543308258</v>
       </c>
       <c r="J4" t="n">
-        <v>195.346266746521</v>
+        <v>176.2781729698181</v>
       </c>
       <c r="K4" t="n">
-        <v>93.19140620231629</v>
+        <v>83.50040674209595</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.521801148690918</v>
+        <v>2.30541138411598</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9204697863055593</v>
+        <v>1.022860393276626</v>
       </c>
       <c r="F5" t="n">
-        <v>6.763277530670166</v>
+        <v>7.896955728530884</v>
       </c>
       <c r="G5" t="n">
-        <v>65.26969361305237</v>
+        <v>79.41847920417786</v>
       </c>
       <c r="H5" t="n">
-        <v>150.2043285369873</v>
+        <v>159.5088801383972</v>
       </c>
       <c r="I5" t="n">
-        <v>259.4232079982758</v>
+        <v>240.1892423629761</v>
       </c>
       <c r="J5" t="n">
-        <v>407.4464585781097</v>
+        <v>336.4732737541199</v>
       </c>
       <c r="K5" t="n">
-        <v>177.8213932514191</v>
+        <v>164.6973662376404</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.980959916259571</v>
+        <v>1.701030133851678</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.033215360828223</v>
+        <v>-0.8681893918387709</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08390545845031738</v>
+        <v>0.1299436092376709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4776456356048584</v>
+        <v>0.4585888385772705</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7109084129333496</v>
+        <v>0.9288513660430908</v>
       </c>
       <c r="I6" t="n">
-        <v>1.351733207702637</v>
+        <v>1.438517332077026</v>
       </c>
       <c r="J6" t="n">
-        <v>2.328612565994263</v>
+        <v>1.971347808837891</v>
       </c>
       <c r="K6" t="n">
-        <v>0.990561056137085</v>
+        <v>0.9854497909545898</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.858392884311185</v>
+        <v>1.812714484838696</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7279428538368991</v>
+        <v>-0.6889378478619312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1739516258239746</v>
+        <v>0.2060797214508057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8498191833496094</v>
+        <v>0.6929390430450439</v>
       </c>
       <c r="H7" t="n">
-        <v>1.318791389465332</v>
+        <v>1.649454116821289</v>
       </c>
       <c r="I7" t="n">
-        <v>2.021011590957642</v>
+        <v>2.249688386917114</v>
       </c>
       <c r="J7" t="n">
-        <v>4.253254652023315</v>
+        <v>3.981803417205811</v>
       </c>
       <c r="K7" t="n">
-        <v>1.723365688323975</v>
+        <v>1.755992937088013</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>2.208799723052237</v>
+        <v>1.819179624928919</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7226123965418807</v>
+        <v>-0.4839301197155167</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1577825546264648</v>
+        <v>0.3675243854522705</v>
       </c>
       <c r="G8" t="n">
-        <v>1.285008430480957</v>
+        <v>1.038289070129395</v>
       </c>
       <c r="H8" t="n">
-        <v>1.993295431137085</v>
+        <v>1.890918016433716</v>
       </c>
       <c r="I8" t="n">
-        <v>3.696454286575317</v>
+        <v>4.973794937133789</v>
       </c>
       <c r="J8" t="n">
-        <v>6.384267330169678</v>
+        <v>6.423749208450317</v>
       </c>
       <c r="K8" t="n">
-        <v>2.7033616065979</v>
+        <v>2.938855123519898</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>2.162516506623359</v>
+        <v>1.805459841842947</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.442224799104799</v>
+        <v>-0.3461916700774393</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3039860725402832</v>
+        <v>0.4409072399139404</v>
       </c>
       <c r="G9" t="n">
-        <v>2.255772113800049</v>
+        <v>1.54564356803894</v>
       </c>
       <c r="H9" t="n">
-        <v>3.925019025802612</v>
+        <v>3.582727432250977</v>
       </c>
       <c r="I9" t="n">
-        <v>6.263200998306274</v>
+        <v>5.668403387069702</v>
       </c>
       <c r="J9" t="n">
-        <v>11.43806767463684</v>
+        <v>7.617084503173828</v>
       </c>
       <c r="K9" t="n">
-        <v>4.837209177017212</v>
+        <v>3.770953226089477</v>
       </c>
     </row>
   </sheetData>
